--- a/Departments/MATH.xlsx
+++ b/Departments/MATH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E584319-49B0-4445-A5D7-B8D6F0C588CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DB35CD-E915-4E5B-BFB4-31022A8CD267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{943D6024-5FC8-4E36-A659-B397A3B10829}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{943D6024-5FC8-4E36-A659-B397A3B10829}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1680,12 +1680,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -1693,6 +1687,12 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -2047,7 +2047,7 @@
   <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I189"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2066,19 +2066,19 @@
         <v>546</v>
       </c>
       <c r="E1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G1" t="s">
         <v>547</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>548</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>549</v>
-      </c>
-      <c r="H1" t="s">
-        <v>550</v>
-      </c>
-      <c r="I1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">

--- a/Departments/MATH.xlsx
+++ b/Departments/MATH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DB35CD-E915-4E5B-BFB4-31022A8CD267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DE43F5-0877-4F22-83B6-195F006580B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{943D6024-5FC8-4E36-A659-B397A3B10829}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{943D6024-5FC8-4E36-A659-B397A3B10829}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="557">
   <si>
     <t>CMPT128</t>
   </si>
@@ -222,24 +222,15 @@
     <t>MACM 203 - Computing with Linear Algebra</t>
   </si>
   <si>
-    <t>CMPT102,CMPT120,CMPT128,CMPT130,FANX99,MATH150,MATH151,MATH154,MATH157,MATH232,MATH240</t>
-  </si>
-  <si>
     <t>MATH232,MATH240</t>
   </si>
   <si>
-    <t>REQ- One of CMPT 102, 120, 126, 128 or 130 and one of MATH 150, 151, 154 or 157 and one of MATH 232 or 240. MATH 232 or 240 can be taken as corequisite. Students in excess of 80 units may not take MACM 203 for further credit.</t>
-  </si>
-  <si>
     <t>MACM204</t>
   </si>
   <si>
     <t>MACM 204 - Computing with Calculus</t>
   </si>
   <si>
-    <t>CMPT102,CMPT120,CMPT128,CMPT130,FANX99,MATH251</t>
-  </si>
-  <si>
     <t>MATH251</t>
   </si>
   <si>
@@ -324,9 +315,6 @@
     <t>MACM 101 - Discrete Mathematics I</t>
   </si>
   <si>
-    <t>REQ-BC Math 12 (or equivalent), or any of MATH 100, 150, 151, 154, 157.</t>
-  </si>
-  <si>
     <t>MATH304</t>
   </si>
   <si>
@@ -489,18 +477,12 @@
     <t>FANX99,MATH100,MATHX12</t>
   </si>
   <si>
-    <t>REQ-Pre-Calculus 12 (or equiv) with a grade of at least A, or MATH 100 grade of at least B, or satisfactory grade on the SFU Calculus Readiness Test. Students with credit for either MATH 150,154 or 157 may not take MATH 151 for further credit.</t>
-  </si>
-  <si>
     <t>MATH152</t>
   </si>
   <si>
     <t>MATH 152 - Calculus II</t>
   </si>
   <si>
-    <t>FANX99,MATH150,MATH151,MATH154,MATH155,MATH157</t>
-  </si>
-  <si>
     <t>REQ-MATH 150 or 151 or 155, with a minimum grade of C-; or MATH 154 or 157, with a grade of at least B. Students with credit for MATH 158 or 251 may not take this course for further credit. Quantitative.</t>
   </si>
   <si>
@@ -825,12 +807,6 @@
     <t>MATH 877 - Supplementary Reading</t>
   </si>
   <si>
-    <t>MATH878</t>
-  </si>
-  <si>
-    <t>MATH 878 - PhD Comprehensive Examination</t>
-  </si>
-  <si>
     <t>MATH879</t>
   </si>
   <si>
@@ -867,30 +843,18 @@
     <t>MATH 130 - Geometry for Computer Graphics</t>
   </si>
   <si>
-    <t>FANX99,MATH100,MATHX11,MATHX12</t>
-  </si>
-  <si>
-    <t>REQ-Pre-Calculus 12 or Foundations of Mathematics 12 (or equivalent) with a grade of at least B, or MATH 100 with a grade of at least C. Quantitative</t>
-  </si>
-  <si>
     <t>MATH150</t>
   </si>
   <si>
     <t>MATH 150 - Calculus I with Review</t>
   </si>
   <si>
-    <t>REQ-Pre-Calc 12 (or eqv.) with at least B+, or MATH100 with at least B-, or achieving satisfactory grade on SFU Calculus Readiness Test. Students with credit for either MATH151,154 or 157 may not take MATH150 for further credit. Quantitative.</t>
-  </si>
-  <si>
     <t>MATH154</t>
   </si>
   <si>
     <t>MATH 154 - Mathematics for the Life Sciences I</t>
   </si>
   <si>
-    <t>REQ-Pre-Calc 12 (or equiv.) with at least B, or MATH 100 with at least C-, or achieving a satis. grade on the SFU Calculus Readiness Test. Students with cred. for MATH 150, 151 or 157 may not take MATH 154 for further credit. Quantitative</t>
-  </si>
-  <si>
     <t>MATH155</t>
   </si>
   <si>
@@ -909,9 +873,6 @@
     <t>MATH 157 - Calculus I for the Social Sciences</t>
   </si>
   <si>
-    <t>REQ- Pre-Calc 12 (or equiv.) with at least B, or MATH100 with at least C, or a satisfactory grade on the SFU Calculus Readiness Test. Students with credit for either MATH150, 151, or 154 may not take MATH157 for further cred. Quantitative</t>
-  </si>
-  <si>
     <t>MATH158</t>
   </si>
   <si>
@@ -1653,21 +1614,12 @@
     <t>MATH 100 - Precalculus</t>
   </si>
   <si>
-    <t>FANX99,MATHX11,MATHX12</t>
-  </si>
-  <si>
-    <t>REQ-PreCalc11 or Fou.Math11(or equiv.) min.B or PreCalc12(or equiv.) min.C &amp; FAN cred, or FANX99 min.B-, or satisfy Quant.Place.Test. MATH100 cannot count for math.minor,major or hon.degree. Students w/ MATH150,151,154, or 157 cannot take MATH100. Quant.</t>
-  </si>
-  <si>
     <t>STAT270</t>
   </si>
   <si>
     <t>STAT 270 - Introduction to Probability and Statistics</t>
   </si>
   <si>
-    <t>REQ: MATH 152 or 155 or 158, with a minimum grade of C-. Students wishing an intuitive appreciation of a broad range of statistical strategies may wish to take STAT 100 first.   Quantitative</t>
-  </si>
-  <si>
     <t>Course_Code</t>
   </si>
   <si>
@@ -1693,6 +1645,69 @@
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>REQ-BC Pre-Calculus 12 or BC Calculus 12 (or equivalent), or any of MATH 100, 150, 151, 154, 157. Quantitative</t>
+  </si>
+  <si>
+    <t>CMPT102,CMPT120,CMPT128,CMPT130,FANX99,MATH150,MATH151,MATH154,MATH157</t>
+  </si>
+  <si>
+    <t>REQ-One of CMPT 102, 120, 126, 128 or 130 and one of MATH 150, 151, 154 or 157 and one of MATH 232 or 240. MATH 232 or 240 can be taken as corequisite.</t>
+  </si>
+  <si>
+    <t>CMPT102,CMPT120,CMPT128,CMPT130,FANX99,MATH152,MATH155,MATH158</t>
+  </si>
+  <si>
+    <t>FANX92,FANX99,MATHX11,MATHX12</t>
+  </si>
+  <si>
+    <t>REQ-(Pre-Calculus 11 or Foundations 11 (or equivalent) with ≥B, or Pre-Calculus 12 with ≥C and SFU FAN credit), or (FAN X92 or X99 with ≥B−), or a satisfactory SFU Q Placement Test score. No credit if taken after MATH 110/150/151/154/157. Quantitative.</t>
+  </si>
+  <si>
+    <t>MATH110</t>
+  </si>
+  <si>
+    <t>MATH 110 - Precalculus for the Life Sciences and Social Sciences</t>
+  </si>
+  <si>
+    <t>REQ-Found of Math 11 (or equiv) with a grade of at least B, or Pre-Calc 12 (or equiv) with at least C and an SFU FAN credit, or SFU FAN X92 or X99 course with at least B-, or achieving a satisfactory grade on the SFU Quantitative Placement Test.</t>
+  </si>
+  <si>
+    <t>FANX99,MATH100,MATH110,MATHX11,MATHX12</t>
+  </si>
+  <si>
+    <t>REQ-Pre-Calculus 12 or Foundations of Mathematics 12 (or equivalent) with a grade of at least B, or MATH 100 with a grade of at least C, or MATH 110 with a grade of at least C.   Quantitative.</t>
+  </si>
+  <si>
+    <t>REQ-Pre-Calculus 12 (or equivalent) with a grade of at least B+, or MATH 100 with a grade of at least B-.  Students with credit for either MATH 151, 154 or 157 may not take MATH 150 for further credit. Quantitative.</t>
+  </si>
+  <si>
+    <t>REQ- Pre-Calculus 12 (or equivalent) with a grade of at least A, or MATH 100 with a grade of at least B.  Students with credit for either MATH 150, 154 or 157 may not take MATH 151 for further credit. Quantitative.</t>
+  </si>
+  <si>
+    <t>FANX99,MATH100,MATH110,MATHX12</t>
+  </si>
+  <si>
+    <t>REQ-Pre-Calculus 12 (or equivalent) with a grade of at least B, or MATH 100 with a grade of at least C-, or MATH 110 with a grade of at least C-. Students with credit for either MATH 150, 151 or 157 may not take MATH 154 for further credit. Quantitative.</t>
+  </si>
+  <si>
+    <t>REQ- Pre-Calculus 12 (or equivalent) with a grade of at least B, or MATH 100 with a grade of at least C, or MATH 110 with a grade of at least C.  Students with credit for either MATH 150, 151 or 154 may not take MATH 157 for further credit. Quantitative.</t>
+  </si>
+  <si>
+    <t>MATH742</t>
+  </si>
+  <si>
+    <t>MATH 742 - Cryptography</t>
+  </si>
+  <si>
+    <t>MATH776</t>
+  </si>
+  <si>
+    <t>MATH 776 - Quantum Computation</t>
+  </si>
+  <si>
+    <t>REQ-MATH 152 or 155 or 158, with a minimum grade of C-. Students wishing an intuitive appreciation of a broad range of statistical strategies may wish to take STAT 100 first.   Quantitative</t>
   </si>
 </sst>
 </file>
@@ -2044,75 +2059,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB43A5E-3525-4A00-A905-77716CD5EDD5}">
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="B1" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="C1" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="D1" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="E1" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="F1" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="G1" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="H1" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="I1" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2121,13 +2133,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -2136,12 +2148,12 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2150,10 +2162,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -2165,24 +2177,24 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2191,154 +2203,169 @@
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>491</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>492</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -2347,41 +2374,44 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>491</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>494</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -2390,7 +2420,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>495</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -2407,7 +2437,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -2416,7 +2446,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -2433,19 +2463,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>496</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>497</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
@@ -2454,12 +2484,12 @@
         <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -2468,10 +2498,10 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
@@ -2481,14 +2511,11 @@
       </c>
       <c r="H16" t="s">
         <v>26</v>
-      </c>
-      <c r="I16" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -2497,7 +2524,7 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -2514,7 +2541,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>498</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -2523,7 +2550,7 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>499</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -2536,14 +2563,11 @@
       </c>
       <c r="H18" t="s">
         <v>26</v>
-      </c>
-      <c r="I18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -2552,10 +2576,10 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
@@ -2565,14 +2589,11 @@
       </c>
       <c r="H19" t="s">
         <v>26</v>
-      </c>
-      <c r="I19" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>500</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -2581,27 +2602,24 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>501</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
       </c>
       <c r="H20" t="s">
         <v>26</v>
-      </c>
-      <c r="I20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -2610,13 +2628,13 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -2627,7 +2645,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>502</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -2636,10 +2654,10 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>503</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
         <v>5</v>
@@ -2649,14 +2667,11 @@
       </c>
       <c r="H22" t="s">
         <v>26</v>
-      </c>
-      <c r="I22" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -2665,10 +2680,10 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -2678,14 +2693,11 @@
       </c>
       <c r="H23" t="s">
         <v>26</v>
-      </c>
-      <c r="I23" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -2694,10 +2706,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
@@ -2707,159 +2719,144 @@
       </c>
       <c r="H24" t="s">
         <v>26</v>
-      </c>
-      <c r="I24" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>504</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>505</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>506</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>507</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I28" t="s">
-        <v>92</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>509</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -2868,10 +2865,10 @@
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -2881,11 +2878,14 @@
       </c>
       <c r="H30" t="s">
         <v>26</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -2894,10 +2894,10 @@
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -2907,14 +2907,11 @@
       </c>
       <c r="H31" t="s">
         <v>26</v>
-      </c>
-      <c r="I31" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -2923,10 +2920,10 @@
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
@@ -2938,12 +2935,12 @@
         <v>26</v>
       </c>
       <c r="I32" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -2952,10 +2949,10 @@
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
@@ -2965,11 +2962,14 @@
       </c>
       <c r="H33" t="s">
         <v>26</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -2978,13 +2978,13 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>537</v>
       </c>
       <c r="F34" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="G34" t="s">
         <v>25</v>
@@ -2993,12 +2993,12 @@
         <v>26</v>
       </c>
       <c r="I34" t="s">
-        <v>112</v>
+        <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -3007,10 +3007,10 @@
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>539</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
@@ -3020,14 +3020,11 @@
       </c>
       <c r="H35" t="s">
         <v>26</v>
-      </c>
-      <c r="I35" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -3036,10 +3033,10 @@
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
@@ -3051,12 +3048,12 @@
         <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>510</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -3065,10 +3062,10 @@
         <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>511</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="F37" t="s">
         <v>5</v>
@@ -3078,11 +3075,14 @@
       </c>
       <c r="H37" t="s">
         <v>26</v>
+      </c>
+      <c r="I37" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>513</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -3091,10 +3091,10 @@
         <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>514</v>
       </c>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>515</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -3106,12 +3106,12 @@
         <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>126</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -3120,10 +3120,10 @@
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
@@ -3135,12 +3135,12 @@
         <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -3149,10 +3149,10 @@
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -3164,12 +3164,12 @@
         <v>26</v>
       </c>
       <c r="I40" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>517</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -3178,10 +3178,10 @@
         <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>518</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>519</v>
       </c>
       <c r="F41" t="s">
         <v>5</v>
@@ -3191,11 +3191,14 @@
       </c>
       <c r="H41" t="s">
         <v>26</v>
+      </c>
+      <c r="I41" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>521</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -3204,10 +3207,10 @@
         <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>522</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="F42" t="s">
         <v>5</v>
@@ -3221,7 +3224,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -3230,10 +3233,10 @@
         <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
         <v>5</v>
@@ -3243,14 +3246,11 @@
       </c>
       <c r="H43" t="s">
         <v>26</v>
-      </c>
-      <c r="I43" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>523</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -3259,10 +3259,10 @@
         <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>524</v>
       </c>
       <c r="E44" t="s">
-        <v>145</v>
+        <v>540</v>
       </c>
       <c r="F44" t="s">
         <v>5</v>
@@ -3274,12 +3274,12 @@
         <v>26</v>
       </c>
       <c r="I44" t="s">
-        <v>146</v>
+        <v>541</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>542</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -3288,10 +3288,10 @@
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>543</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>540</v>
       </c>
       <c r="F45" t="s">
         <v>5</v>
@@ -3303,12 +3303,12 @@
         <v>26</v>
       </c>
       <c r="I45" t="s">
-        <v>150</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -3317,10 +3317,10 @@
         <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F46" t="s">
         <v>5</v>
@@ -3332,12 +3332,12 @@
         <v>26</v>
       </c>
       <c r="I46" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -3346,10 +3346,10 @@
         <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -3361,12 +3361,12 @@
         <v>26</v>
       </c>
       <c r="I47" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>262</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -3375,10 +3375,10 @@
         <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="E48" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="F48" t="s">
         <v>5</v>
@@ -3390,12 +3390,12 @@
         <v>26</v>
       </c>
       <c r="I48" t="s">
-        <v>161</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -3404,10 +3404,10 @@
         <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>545</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -3419,12 +3419,12 @@
         <v>26</v>
       </c>
       <c r="I49" t="s">
-        <v>164</v>
+        <v>546</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -3433,10 +3433,10 @@
         <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="E50" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="F50" t="s">
         <v>5</v>
@@ -3448,12 +3448,12 @@
         <v>26</v>
       </c>
       <c r="I50" t="s">
-        <v>168</v>
+        <v>547</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -3462,10 +3462,10 @@
         <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="F51" t="s">
         <v>5</v>
@@ -3477,12 +3477,12 @@
         <v>26</v>
       </c>
       <c r="I51" t="s">
-        <v>172</v>
+        <v>548</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -3491,10 +3491,10 @@
         <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="E52" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="F52" t="s">
         <v>5</v>
@@ -3506,12 +3506,12 @@
         <v>26</v>
       </c>
       <c r="I52" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -3520,10 +3520,10 @@
         <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
+        <v>549</v>
       </c>
       <c r="F53" t="s">
         <v>5</v>
@@ -3533,11 +3533,14 @@
       </c>
       <c r="H53" t="s">
         <v>26</v>
+      </c>
+      <c r="I53" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -3546,10 +3549,10 @@
         <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>180</v>
+        <v>273</v>
       </c>
       <c r="E54" t="s">
-        <v>98</v>
+        <v>274</v>
       </c>
       <c r="F54" t="s">
         <v>5</v>
@@ -3561,12 +3564,12 @@
         <v>26</v>
       </c>
       <c r="I54" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -3575,10 +3578,10 @@
         <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="E55" t="s">
-        <v>98</v>
+        <v>549</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -3590,12 +3593,12 @@
         <v>26</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>551</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>185</v>
+        <v>278</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -3604,10 +3607,10 @@
         <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="E56" t="s">
-        <v>187</v>
+        <v>274</v>
       </c>
       <c r="F56" t="s">
         <v>5</v>
@@ -3619,12 +3622,12 @@
         <v>26</v>
       </c>
       <c r="I56" t="s">
-        <v>188</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -3633,10 +3636,10 @@
         <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="F57" t="s">
         <v>5</v>
@@ -3648,12 +3651,12 @@
         <v>26</v>
       </c>
       <c r="I57" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -3662,10 +3665,10 @@
         <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="E58" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="F58" t="s">
         <v>5</v>
@@ -3677,12 +3680,12 @@
         <v>26</v>
       </c>
       <c r="I58" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
@@ -3691,10 +3694,10 @@
         <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="F59" t="s">
         <v>5</v>
@@ -3704,11 +3707,14 @@
       </c>
       <c r="H59" t="s">
         <v>26</v>
+      </c>
+      <c r="I59" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -3717,10 +3723,10 @@
         <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -3730,11 +3736,14 @@
       </c>
       <c r="H60" t="s">
         <v>26</v>
+      </c>
+      <c r="I60" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>201</v>
+        <v>284</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
@@ -3743,10 +3752,10 @@
         <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>202</v>
+        <v>285</v>
       </c>
       <c r="E61" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -3756,11 +3765,14 @@
       </c>
       <c r="H61" t="s">
         <v>26</v>
+      </c>
+      <c r="I61" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
@@ -3769,10 +3781,10 @@
         <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="F62" t="s">
         <v>5</v>
@@ -3782,11 +3794,14 @@
       </c>
       <c r="H62" t="s">
         <v>26</v>
+      </c>
+      <c r="I62" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>205</v>
+        <v>287</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
@@ -3795,13 +3810,13 @@
         <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="E63" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="F63" t="s">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="G63" t="s">
         <v>25</v>
@@ -3810,12 +3825,12 @@
         <v>26</v>
       </c>
       <c r="I63" t="s">
-        <v>208</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -3824,13 +3839,13 @@
         <v>23</v>
       </c>
       <c r="D64" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="E64" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="F64" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="G64" t="s">
         <v>25</v>
@@ -3839,12 +3854,12 @@
         <v>26</v>
       </c>
       <c r="I64" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -3853,10 +3868,10 @@
         <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="E65" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="F65" t="s">
         <v>5</v>
@@ -3867,10 +3882,13 @@
       <c r="H65" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -3879,10 +3897,10 @@
         <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>291</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -3893,10 +3911,13 @@
       <c r="H66" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I66" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
@@ -3905,13 +3926,13 @@
         <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>217</v>
+        <v>294</v>
       </c>
       <c r="E67" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="F67" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="G67" t="s">
         <v>25</v>
@@ -3919,10 +3940,13 @@
       <c r="H67" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I67" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
@@ -3931,13 +3955,13 @@
         <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="E68" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="F68" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="G68" t="s">
         <v>25</v>
@@ -3945,10 +3969,13 @@
       <c r="H68" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I68" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -3957,10 +3984,10 @@
         <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="E69" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -3972,9 +3999,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>222</v>
+        <v>303</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -3983,7 +4010,7 @@
         <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="E70" t="s">
         <v>5</v>
@@ -3998,9 +4025,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>224</v>
+        <v>305</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
@@ -4009,7 +4036,7 @@
         <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="E71" t="s">
         <v>5</v>
@@ -4024,9 +4051,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
@@ -4035,10 +4062,10 @@
         <v>23</v>
       </c>
       <c r="D72" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="E72" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="F72" t="s">
         <v>5</v>
@@ -4049,10 +4076,13 @@
       <c r="H72" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I72" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -4061,10 +4091,10 @@
         <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="F73" t="s">
         <v>5</v>
@@ -4075,10 +4105,13 @@
       <c r="H73" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I73" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
@@ -4087,10 +4120,10 @@
         <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="F74" t="s">
         <v>5</v>
@@ -4101,10 +4134,13 @@
       <c r="H74" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I74" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
@@ -4113,10 +4149,10 @@
         <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -4128,9 +4164,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
@@ -4139,10 +4175,10 @@
         <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="E76" t="s">
-        <v>5</v>
+        <v>311</v>
       </c>
       <c r="F76" t="s">
         <v>5</v>
@@ -4153,10 +4189,13 @@
       <c r="H76" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I76" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>236</v>
+        <v>95</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
@@ -4165,10 +4204,10 @@
         <v>23</v>
       </c>
       <c r="D77" t="s">
-        <v>237</v>
+        <v>96</v>
       </c>
       <c r="E77" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -4179,10 +4218,13 @@
       <c r="H77" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>238</v>
+        <v>99</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
@@ -4191,10 +4233,10 @@
         <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="E78" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="F78" t="s">
         <v>5</v>
@@ -4205,10 +4247,13 @@
       <c r="H78" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
@@ -4217,10 +4262,10 @@
         <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>241</v>
+        <v>314</v>
       </c>
       <c r="E79" t="s">
-        <v>5</v>
+        <v>315</v>
       </c>
       <c r="F79" t="s">
         <v>5</v>
@@ -4231,10 +4276,13 @@
       <c r="H79" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I79" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="B80" t="s">
         <v>1</v>
@@ -4243,10 +4291,10 @@
         <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>243</v>
+        <v>318</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
+        <v>319</v>
       </c>
       <c r="F80" t="s">
         <v>5</v>
@@ -4256,11 +4304,14 @@
       </c>
       <c r="H80" t="s">
         <v>26</v>
+      </c>
+      <c r="I80" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
@@ -4269,7 +4320,7 @@
         <v>23</v>
       </c>
       <c r="D81" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
@@ -4286,7 +4337,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>246</v>
+        <v>103</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
@@ -4295,7 +4346,7 @@
         <v>23</v>
       </c>
       <c r="D82" t="s">
-        <v>247</v>
+        <v>104</v>
       </c>
       <c r="E82" t="s">
         <v>5</v>
@@ -4312,7 +4363,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
@@ -4321,10 +4372,10 @@
         <v>23</v>
       </c>
       <c r="D83" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="F83" t="s">
         <v>5</v>
@@ -4334,11 +4385,14 @@
       </c>
       <c r="H83" t="s">
         <v>26</v>
+      </c>
+      <c r="I83" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>250</v>
+        <v>323</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
@@ -4347,10 +4401,10 @@
         <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="E84" t="s">
-        <v>5</v>
+        <v>325</v>
       </c>
       <c r="F84" t="s">
         <v>5</v>
@@ -4360,11 +4414,14 @@
       </c>
       <c r="H84" t="s">
         <v>26</v>
+      </c>
+      <c r="I84" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
@@ -4373,10 +4430,10 @@
         <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="E85" t="s">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="F85" t="s">
         <v>5</v>
@@ -4386,11 +4443,14 @@
       </c>
       <c r="H85" t="s">
         <v>26</v>
+      </c>
+      <c r="I85" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>254</v>
+        <v>331</v>
       </c>
       <c r="B86" t="s">
         <v>1</v>
@@ -4399,13 +4459,13 @@
         <v>23</v>
       </c>
       <c r="D86" t="s">
-        <v>255</v>
+        <v>332</v>
       </c>
       <c r="E86" t="s">
-        <v>5</v>
+        <v>325</v>
       </c>
       <c r="F86" t="s">
-        <v>256</v>
+        <v>5</v>
       </c>
       <c r="G86" t="s">
         <v>25</v>
@@ -4414,12 +4474,12 @@
         <v>26</v>
       </c>
       <c r="I86" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -4428,13 +4488,13 @@
         <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="E87" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="F87" t="s">
-        <v>254</v>
+        <v>5</v>
       </c>
       <c r="G87" t="s">
         <v>25</v>
@@ -4443,12 +4503,12 @@
         <v>26</v>
       </c>
       <c r="I87" t="s">
-        <v>259</v>
+        <v>336</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>260</v>
+        <v>337</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
@@ -4457,10 +4517,10 @@
         <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
       <c r="E88" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="F88" t="s">
         <v>5</v>
@@ -4470,11 +4530,14 @@
       </c>
       <c r="H88" t="s">
         <v>26</v>
+      </c>
+      <c r="I88" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="B89" t="s">
         <v>1</v>
@@ -4483,10 +4546,10 @@
         <v>23</v>
       </c>
       <c r="D89" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
       <c r="E89" t="s">
-        <v>5</v>
+        <v>342</v>
       </c>
       <c r="F89" t="s">
         <v>5</v>
@@ -4496,11 +4559,14 @@
       </c>
       <c r="H89" t="s">
         <v>26</v>
+      </c>
+      <c r="I89" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>264</v>
+        <v>109</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -4509,10 +4575,10 @@
         <v>23</v>
       </c>
       <c r="D90" t="s">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="E90" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="F90" t="s">
         <v>5</v>
@@ -4522,11 +4588,14 @@
       </c>
       <c r="H90" t="s">
         <v>26</v>
+      </c>
+      <c r="I90" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>266</v>
+        <v>344</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
@@ -4535,10 +4604,10 @@
         <v>23</v>
       </c>
       <c r="D91" t="s">
-        <v>267</v>
+        <v>345</v>
       </c>
       <c r="E91" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="F91" t="s">
         <v>5</v>
@@ -4548,11 +4617,14 @@
       </c>
       <c r="H91" t="s">
         <v>26</v>
+      </c>
+      <c r="I91" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>268</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
         <v>1</v>
@@ -4561,10 +4633,10 @@
         <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>269</v>
+        <v>114</v>
       </c>
       <c r="E92" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="F92" t="s">
         <v>5</v>
@@ -4574,11 +4646,14 @@
       </c>
       <c r="H92" t="s">
         <v>26</v>
+      </c>
+      <c r="I92" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>270</v>
+        <v>117</v>
       </c>
       <c r="B93" t="s">
         <v>1</v>
@@ -4587,10 +4662,10 @@
         <v>23</v>
       </c>
       <c r="D93" t="s">
-        <v>271</v>
+        <v>118</v>
       </c>
       <c r="E93" t="s">
-        <v>272</v>
+        <v>5</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -4600,14 +4675,11 @@
       </c>
       <c r="H93" t="s">
         <v>26</v>
-      </c>
-      <c r="I93" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>274</v>
+        <v>347</v>
       </c>
       <c r="B94" t="s">
         <v>1</v>
@@ -4616,10 +4688,10 @@
         <v>23</v>
       </c>
       <c r="D94" t="s">
-        <v>275</v>
+        <v>348</v>
       </c>
       <c r="E94" t="s">
-        <v>276</v>
+        <v>5</v>
       </c>
       <c r="F94" t="s">
         <v>5</v>
@@ -4629,14 +4701,11 @@
       </c>
       <c r="H94" t="s">
         <v>26</v>
-      </c>
-      <c r="I94" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>278</v>
+        <v>349</v>
       </c>
       <c r="B95" t="s">
         <v>1</v>
@@ -4645,10 +4714,10 @@
         <v>23</v>
       </c>
       <c r="D95" t="s">
-        <v>279</v>
+        <v>350</v>
       </c>
       <c r="E95" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="F95" t="s">
         <v>5</v>
@@ -4658,14 +4727,11 @@
       </c>
       <c r="H95" t="s">
         <v>26</v>
-      </c>
-      <c r="I95" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>281</v>
+        <v>119</v>
       </c>
       <c r="B96" t="s">
         <v>1</v>
@@ -4674,10 +4740,10 @@
         <v>23</v>
       </c>
       <c r="D96" t="s">
-        <v>282</v>
+        <v>120</v>
       </c>
       <c r="E96" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="F96" t="s">
         <v>5</v>
@@ -4689,12 +4755,12 @@
         <v>26</v>
       </c>
       <c r="I96" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>284</v>
+        <v>351</v>
       </c>
       <c r="B97" t="s">
         <v>1</v>
@@ -4703,10 +4769,10 @@
         <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
       <c r="E97" t="s">
-        <v>286</v>
+        <v>353</v>
       </c>
       <c r="F97" t="s">
         <v>5</v>
@@ -4718,12 +4784,12 @@
         <v>26</v>
       </c>
       <c r="I97" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>288</v>
+        <v>123</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
@@ -4732,10 +4798,10 @@
         <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="E98" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F98" t="s">
         <v>5</v>
@@ -4747,12 +4813,12 @@
         <v>26</v>
       </c>
       <c r="I98" t="s">
-        <v>290</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="B99" t="s">
         <v>1</v>
@@ -4761,10 +4827,10 @@
         <v>23</v>
       </c>
       <c r="D99" t="s">
-        <v>292</v>
+        <v>356</v>
       </c>
       <c r="E99" t="s">
-        <v>286</v>
+        <v>357</v>
       </c>
       <c r="F99" t="s">
         <v>5</v>
@@ -4776,12 +4842,12 @@
         <v>26</v>
       </c>
       <c r="I99" t="s">
-        <v>293</v>
+        <v>358</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>294</v>
+        <v>359</v>
       </c>
       <c r="B100" t="s">
         <v>1</v>
@@ -4790,10 +4856,10 @@
         <v>23</v>
       </c>
       <c r="D100" t="s">
-        <v>295</v>
+        <v>360</v>
       </c>
       <c r="E100" t="s">
-        <v>141</v>
+        <v>361</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -4805,12 +4871,12 @@
         <v>26</v>
       </c>
       <c r="I100" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>297</v>
+        <v>127</v>
       </c>
       <c r="B101" t="s">
         <v>1</v>
@@ -4819,10 +4885,10 @@
         <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="E101" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F101" t="s">
         <v>5</v>
@@ -4834,12 +4900,12 @@
         <v>26</v>
       </c>
       <c r="I101" t="s">
-        <v>299</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="B102" t="s">
         <v>1</v>
@@ -4848,10 +4914,10 @@
         <v>23</v>
       </c>
       <c r="D102" t="s">
-        <v>301</v>
+        <v>180</v>
       </c>
       <c r="E102" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F102" t="s">
         <v>5</v>
@@ -4863,12 +4929,12 @@
         <v>26</v>
       </c>
       <c r="I102" t="s">
-        <v>302</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="B103" t="s">
         <v>1</v>
@@ -4877,10 +4943,10 @@
         <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>303</v>
+        <v>132</v>
       </c>
       <c r="E103" t="s">
-        <v>304</v>
+        <v>5</v>
       </c>
       <c r="F103" t="s">
         <v>5</v>
@@ -4890,14 +4956,11 @@
       </c>
       <c r="H103" t="s">
         <v>26</v>
-      </c>
-      <c r="I103" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>306</v>
+        <v>189</v>
       </c>
       <c r="B104" t="s">
         <v>1</v>
@@ -4906,27 +4969,24 @@
         <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>307</v>
+        <v>458</v>
       </c>
       <c r="E104" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="F104" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="G104" t="s">
         <v>25</v>
       </c>
       <c r="H104" t="s">
         <v>26</v>
-      </c>
-      <c r="I104" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>309</v>
+        <v>459</v>
       </c>
       <c r="B105" t="s">
         <v>1</v>
@@ -4935,10 +4995,10 @@
         <v>23</v>
       </c>
       <c r="D105" t="s">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="E105" t="s">
-        <v>5</v>
+        <v>461</v>
       </c>
       <c r="F105" t="s">
         <v>5</v>
@@ -4948,11 +5008,14 @@
       </c>
       <c r="H105" t="s">
         <v>26</v>
+      </c>
+      <c r="I105" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>311</v>
+        <v>463</v>
       </c>
       <c r="B106" t="s">
         <v>1</v>
@@ -4961,10 +5024,10 @@
         <v>23</v>
       </c>
       <c r="D106" t="s">
-        <v>312</v>
+        <v>464</v>
       </c>
       <c r="E106" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="F106" t="s">
         <v>5</v>
@@ -4974,11 +5037,14 @@
       </c>
       <c r="H106" t="s">
         <v>26</v>
+      </c>
+      <c r="I106" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="B107" t="s">
         <v>1</v>
@@ -4987,13 +5053,13 @@
         <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="E107" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F107" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="G107" t="s">
         <v>25</v>
@@ -5002,12 +5068,12 @@
         <v>26</v>
       </c>
       <c r="I107" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="B108" t="s">
         <v>1</v>
@@ -5016,10 +5082,10 @@
         <v>23</v>
       </c>
       <c r="D108" t="s">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="E108" t="s">
-        <v>5</v>
+        <v>368</v>
       </c>
       <c r="F108" t="s">
         <v>5</v>
@@ -5029,11 +5095,14 @@
       </c>
       <c r="H108" t="s">
         <v>26</v>
+      </c>
+      <c r="I108" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="B109" t="s">
         <v>1</v>
@@ -5042,10 +5111,10 @@
         <v>23</v>
       </c>
       <c r="D109" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="E109" t="s">
-        <v>5</v>
+        <v>372</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -5055,11 +5124,14 @@
       </c>
       <c r="H109" t="s">
         <v>26</v>
+      </c>
+      <c r="I109" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>320</v>
+        <v>466</v>
       </c>
       <c r="B110" t="s">
         <v>1</v>
@@ -5068,10 +5140,10 @@
         <v>23</v>
       </c>
       <c r="D110" t="s">
-        <v>321</v>
+        <v>467</v>
       </c>
       <c r="E110" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F110" t="s">
         <v>5</v>
@@ -5083,12 +5155,12 @@
         <v>26</v>
       </c>
       <c r="I110" t="s">
-        <v>181</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>322</v>
+        <v>468</v>
       </c>
       <c r="B111" t="s">
         <v>1</v>
@@ -5097,10 +5169,10 @@
         <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>323</v>
+        <v>469</v>
       </c>
       <c r="E111" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -5112,12 +5184,12 @@
         <v>26</v>
       </c>
       <c r="I111" t="s">
-        <v>325</v>
+        <v>470</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>326</v>
+        <v>471</v>
       </c>
       <c r="B112" t="s">
         <v>1</v>
@@ -5126,10 +5198,10 @@
         <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>327</v>
+        <v>472</v>
       </c>
       <c r="E112" t="s">
-        <v>328</v>
+        <v>473</v>
       </c>
       <c r="F112" t="s">
         <v>5</v>
@@ -5141,12 +5213,12 @@
         <v>26</v>
       </c>
       <c r="I112" t="s">
-        <v>329</v>
+        <v>474</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>330</v>
+        <v>475</v>
       </c>
       <c r="B113" t="s">
         <v>1</v>
@@ -5155,10 +5227,10 @@
         <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>331</v>
+        <v>476</v>
       </c>
       <c r="E113" t="s">
-        <v>332</v>
+        <v>477</v>
       </c>
       <c r="F113" t="s">
         <v>5</v>
@@ -5170,12 +5242,12 @@
         <v>26</v>
       </c>
       <c r="I113" t="s">
-        <v>333</v>
+        <v>478</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="B114" t="s">
         <v>1</v>
@@ -5184,10 +5256,10 @@
         <v>23</v>
       </c>
       <c r="D114" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="E114" t="s">
-        <v>5</v>
+        <v>376</v>
       </c>
       <c r="F114" t="s">
         <v>5</v>
@@ -5197,11 +5269,14 @@
       </c>
       <c r="H114" t="s">
         <v>26</v>
+      </c>
+      <c r="I114" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="B115" t="s">
         <v>1</v>
@@ -5210,13 +5285,13 @@
         <v>23</v>
       </c>
       <c r="D115" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="E115" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="F115" t="s">
-        <v>5</v>
+        <v>381</v>
       </c>
       <c r="G115" t="s">
         <v>25</v>
@@ -5225,12 +5300,12 @@
         <v>26</v>
       </c>
       <c r="I115" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="B116" t="s">
         <v>1</v>
@@ -5239,10 +5314,10 @@
         <v>23</v>
       </c>
       <c r="D116" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="E116" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -5254,12 +5329,12 @@
         <v>26</v>
       </c>
       <c r="I116" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>344</v>
+        <v>183</v>
       </c>
       <c r="B117" t="s">
         <v>1</v>
@@ -5268,10 +5343,10 @@
         <v>23</v>
       </c>
       <c r="D117" t="s">
-        <v>345</v>
+        <v>184</v>
       </c>
       <c r="E117" t="s">
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="F117" t="s">
         <v>5</v>
@@ -5283,12 +5358,12 @@
         <v>26</v>
       </c>
       <c r="I117" t="s">
-        <v>346</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="B118" t="s">
         <v>1</v>
@@ -5297,10 +5372,10 @@
         <v>23</v>
       </c>
       <c r="D118" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="E118" t="s">
-        <v>70</v>
+        <v>389</v>
       </c>
       <c r="F118" t="s">
         <v>5</v>
@@ -5312,12 +5387,12 @@
         <v>26</v>
       </c>
       <c r="I118" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="B119" t="s">
         <v>1</v>
@@ -5326,10 +5401,10 @@
         <v>23</v>
       </c>
       <c r="D119" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="E119" t="s">
-        <v>70</v>
+        <v>393</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -5341,12 +5416,12 @@
         <v>26</v>
       </c>
       <c r="I119" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>353</v>
+        <v>187</v>
       </c>
       <c r="B120" t="s">
         <v>1</v>
@@ -5355,10 +5430,10 @@
         <v>23</v>
       </c>
       <c r="D120" t="s">
-        <v>354</v>
+        <v>188</v>
       </c>
       <c r="E120" t="s">
-        <v>355</v>
+        <v>189</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -5370,12 +5445,12 @@
         <v>26</v>
       </c>
       <c r="I120" t="s">
-        <v>356</v>
+        <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="B121" t="s">
         <v>1</v>
@@ -5384,10 +5459,10 @@
         <v>23</v>
       </c>
       <c r="D121" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="E121" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="F121" t="s">
         <v>5</v>
@@ -5397,14 +5472,11 @@
       </c>
       <c r="H121" t="s">
         <v>26</v>
-      </c>
-      <c r="I121" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>360</v>
+        <v>191</v>
       </c>
       <c r="B122" t="s">
         <v>1</v>
@@ -5413,7 +5485,7 @@
         <v>23</v>
       </c>
       <c r="D122" t="s">
-        <v>361</v>
+        <v>192</v>
       </c>
       <c r="E122" t="s">
         <v>5</v>
@@ -5430,7 +5502,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>362</v>
+        <v>193</v>
       </c>
       <c r="B123" t="s">
         <v>1</v>
@@ -5439,7 +5511,7 @@
         <v>23</v>
       </c>
       <c r="D123" t="s">
-        <v>363</v>
+        <v>194</v>
       </c>
       <c r="E123" t="s">
         <v>5</v>
@@ -5456,7 +5528,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>364</v>
+        <v>195</v>
       </c>
       <c r="B124" t="s">
         <v>1</v>
@@ -5465,10 +5537,10 @@
         <v>23</v>
       </c>
       <c r="D124" t="s">
-        <v>365</v>
+        <v>196</v>
       </c>
       <c r="E124" t="s">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="F124" t="s">
         <v>5</v>
@@ -5478,14 +5550,11 @@
       </c>
       <c r="H124" t="s">
         <v>26</v>
-      </c>
-      <c r="I124" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>368</v>
+        <v>197</v>
       </c>
       <c r="B125" t="s">
         <v>1</v>
@@ -5494,10 +5563,10 @@
         <v>23</v>
       </c>
       <c r="D125" t="s">
-        <v>369</v>
+        <v>198</v>
       </c>
       <c r="E125" t="s">
-        <v>370</v>
+        <v>5</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -5507,14 +5576,11 @@
       </c>
       <c r="H125" t="s">
         <v>26</v>
-      </c>
-      <c r="I125" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="B126" t="s">
         <v>1</v>
@@ -5523,10 +5589,10 @@
         <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="E126" t="s">
-        <v>374</v>
+        <v>5</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -5536,14 +5602,11 @@
       </c>
       <c r="H126" t="s">
         <v>26</v>
-      </c>
-      <c r="I126" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="B127" t="s">
         <v>1</v>
@@ -5552,10 +5615,10 @@
         <v>23</v>
       </c>
       <c r="D127" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="E127" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="F127" t="s">
         <v>5</v>
@@ -5565,14 +5628,11 @@
       </c>
       <c r="H127" t="s">
         <v>26</v>
-      </c>
-      <c r="I127" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>379</v>
+        <v>199</v>
       </c>
       <c r="B128" t="s">
         <v>1</v>
@@ -5581,13 +5641,13 @@
         <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="E128" t="s">
-        <v>381</v>
+        <v>5</v>
       </c>
       <c r="F128" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="G128" t="s">
         <v>25</v>
@@ -5596,12 +5656,12 @@
         <v>26</v>
       </c>
       <c r="I128" t="s">
-        <v>382</v>
+        <v>202</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>383</v>
+        <v>201</v>
       </c>
       <c r="B129" t="s">
         <v>1</v>
@@ -5610,13 +5670,13 @@
         <v>23</v>
       </c>
       <c r="D129" t="s">
-        <v>384</v>
+        <v>203</v>
       </c>
       <c r="E129" t="s">
-        <v>385</v>
+        <v>204</v>
       </c>
       <c r="F129" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="G129" t="s">
         <v>25</v>
@@ -5625,12 +5685,12 @@
         <v>26</v>
       </c>
       <c r="I129" t="s">
-        <v>386</v>
+        <v>205</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="B130" t="s">
         <v>1</v>
@@ -5639,10 +5699,10 @@
         <v>23</v>
       </c>
       <c r="D130" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="E130" t="s">
-        <v>389</v>
+        <v>5</v>
       </c>
       <c r="F130" t="s">
         <v>5</v>
@@ -5652,14 +5712,11 @@
       </c>
       <c r="H130" t="s">
         <v>26</v>
-      </c>
-      <c r="I130" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B131" t="s">
         <v>1</v>
@@ -5668,27 +5725,24 @@
         <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="E131" t="s">
-        <v>393</v>
+        <v>5</v>
       </c>
       <c r="F131" t="s">
-        <v>394</v>
+        <v>5</v>
       </c>
       <c r="G131" t="s">
         <v>25</v>
       </c>
       <c r="H131" t="s">
         <v>26</v>
-      </c>
-      <c r="I131" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B132" t="s">
         <v>1</v>
@@ -5697,10 +5751,10 @@
         <v>23</v>
       </c>
       <c r="D132" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="E132" t="s">
-        <v>398</v>
+        <v>5</v>
       </c>
       <c r="F132" t="s">
         <v>5</v>
@@ -5710,14 +5764,11 @@
       </c>
       <c r="H132" t="s">
         <v>26</v>
-      </c>
-      <c r="I132" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B133" t="s">
         <v>1</v>
@@ -5726,10 +5777,10 @@
         <v>23</v>
       </c>
       <c r="D133" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="E133" t="s">
-        <v>402</v>
+        <v>5</v>
       </c>
       <c r="F133" t="s">
         <v>5</v>
@@ -5739,14 +5790,11 @@
       </c>
       <c r="H133" t="s">
         <v>26</v>
-      </c>
-      <c r="I133" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>404</v>
+        <v>206</v>
       </c>
       <c r="B134" t="s">
         <v>1</v>
@@ -5755,10 +5803,10 @@
         <v>23</v>
       </c>
       <c r="D134" t="s">
-        <v>405</v>
+        <v>207</v>
       </c>
       <c r="E134" t="s">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="F134" t="s">
         <v>5</v>
@@ -5768,14 +5816,11 @@
       </c>
       <c r="H134" t="s">
         <v>26</v>
-      </c>
-      <c r="I134" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B135" t="s">
         <v>1</v>
@@ -5784,7 +5829,7 @@
         <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E135" t="s">
         <v>5</v>
@@ -5801,7 +5846,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B136" t="s">
         <v>1</v>
@@ -5810,7 +5855,7 @@
         <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E136" t="s">
         <v>5</v>
@@ -5827,7 +5872,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>412</v>
+        <v>208</v>
       </c>
       <c r="B137" t="s">
         <v>1</v>
@@ -5836,7 +5881,7 @@
         <v>23</v>
       </c>
       <c r="D137" t="s">
-        <v>413</v>
+        <v>209</v>
       </c>
       <c r="E137" t="s">
         <v>5</v>
@@ -5853,7 +5898,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>414</v>
+        <v>210</v>
       </c>
       <c r="B138" t="s">
         <v>1</v>
@@ -5862,7 +5907,7 @@
         <v>23</v>
       </c>
       <c r="D138" t="s">
-        <v>415</v>
+        <v>211</v>
       </c>
       <c r="E138" t="s">
         <v>5</v>
@@ -5879,7 +5924,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B139" t="s">
         <v>1</v>
@@ -5888,7 +5933,7 @@
         <v>23</v>
       </c>
       <c r="D139" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E139" t="s">
         <v>5</v>
@@ -5905,7 +5950,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B140" t="s">
         <v>1</v>
@@ -5914,7 +5959,7 @@
         <v>23</v>
       </c>
       <c r="D140" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E140" t="s">
         <v>5</v>
@@ -5931,7 +5976,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>420</v>
+        <v>212</v>
       </c>
       <c r="B141" t="s">
         <v>1</v>
@@ -5940,7 +5985,7 @@
         <v>23</v>
       </c>
       <c r="D141" t="s">
-        <v>421</v>
+        <v>213</v>
       </c>
       <c r="E141" t="s">
         <v>5</v>
@@ -5957,7 +6002,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>422</v>
+        <v>214</v>
       </c>
       <c r="B142" t="s">
         <v>1</v>
@@ -5966,7 +6011,7 @@
         <v>23</v>
       </c>
       <c r="D142" t="s">
-        <v>423</v>
+        <v>215</v>
       </c>
       <c r="E142" t="s">
         <v>5</v>
@@ -5983,7 +6028,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>424</v>
+        <v>216</v>
       </c>
       <c r="B143" t="s">
         <v>1</v>
@@ -5992,7 +6037,7 @@
         <v>23</v>
       </c>
       <c r="D143" t="s">
-        <v>425</v>
+        <v>217</v>
       </c>
       <c r="E143" t="s">
         <v>5</v>
@@ -6009,769 +6054,745 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>552</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144" t="s">
+        <v>553</v>
+      </c>
+      <c r="E144" t="s">
+        <v>5</v>
+      </c>
+      <c r="F144" t="s">
+        <v>5</v>
+      </c>
+      <c r="G144" t="s">
+        <v>25</v>
+      </c>
+      <c r="H144" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>218</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" t="s">
+        <v>219</v>
+      </c>
+      <c r="E145" t="s">
+        <v>5</v>
+      </c>
+      <c r="F145" t="s">
+        <v>5</v>
+      </c>
+      <c r="G145" t="s">
+        <v>25</v>
+      </c>
+      <c r="H145" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>417</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D146" t="s">
+        <v>418</v>
+      </c>
+      <c r="E146" t="s">
+        <v>5</v>
+      </c>
+      <c r="F146" t="s">
+        <v>5</v>
+      </c>
+      <c r="G146" t="s">
+        <v>25</v>
+      </c>
+      <c r="H146" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>220</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147" t="s">
+        <v>221</v>
+      </c>
+      <c r="E147" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147" t="s">
+        <v>5</v>
+      </c>
+      <c r="G147" t="s">
+        <v>25</v>
+      </c>
+      <c r="H147" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>419</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>23</v>
+      </c>
+      <c r="D148" t="s">
+        <v>420</v>
+      </c>
+      <c r="E148" t="s">
+        <v>5</v>
+      </c>
+      <c r="F148" t="s">
+        <v>5</v>
+      </c>
+      <c r="G148" t="s">
+        <v>25</v>
+      </c>
+      <c r="H148" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>421</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149" t="s">
+        <v>422</v>
+      </c>
+      <c r="E149" t="s">
+        <v>5</v>
+      </c>
+      <c r="F149" t="s">
+        <v>5</v>
+      </c>
+      <c r="G149" t="s">
+        <v>25</v>
+      </c>
+      <c r="H149" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>423</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>23</v>
+      </c>
+      <c r="D150" t="s">
+        <v>424</v>
+      </c>
+      <c r="E150" t="s">
+        <v>5</v>
+      </c>
+      <c r="F150" t="s">
+        <v>5</v>
+      </c>
+      <c r="G150" t="s">
+        <v>25</v>
+      </c>
+      <c r="H150" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>425</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
+        <v>23</v>
+      </c>
+      <c r="D151" t="s">
         <v>426</v>
       </c>
-      <c r="B144" t="s">
-        <v>1</v>
-      </c>
-      <c r="C144" t="s">
-        <v>23</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="E151" t="s">
+        <v>5</v>
+      </c>
+      <c r="F151" t="s">
+        <v>5</v>
+      </c>
+      <c r="G151" t="s">
+        <v>25</v>
+      </c>
+      <c r="H151" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>222</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>23</v>
+      </c>
+      <c r="D152" t="s">
+        <v>223</v>
+      </c>
+      <c r="E152" t="s">
+        <v>5</v>
+      </c>
+      <c r="F152" t="s">
+        <v>5</v>
+      </c>
+      <c r="G152" t="s">
+        <v>25</v>
+      </c>
+      <c r="H152" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>224</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153" t="s">
+        <v>225</v>
+      </c>
+      <c r="E153" t="s">
+        <v>5</v>
+      </c>
+      <c r="F153" t="s">
+        <v>5</v>
+      </c>
+      <c r="G153" t="s">
+        <v>25</v>
+      </c>
+      <c r="H153" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>226</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>23</v>
+      </c>
+      <c r="D154" t="s">
+        <v>227</v>
+      </c>
+      <c r="E154" t="s">
+        <v>5</v>
+      </c>
+      <c r="F154" t="s">
+        <v>5</v>
+      </c>
+      <c r="G154" t="s">
+        <v>25</v>
+      </c>
+      <c r="H154" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>228</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>23</v>
+      </c>
+      <c r="D155" t="s">
+        <v>229</v>
+      </c>
+      <c r="E155" t="s">
+        <v>5</v>
+      </c>
+      <c r="F155" t="s">
+        <v>5</v>
+      </c>
+      <c r="G155" t="s">
+        <v>25</v>
+      </c>
+      <c r="H155" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>427</v>
       </c>
-      <c r="E144" t="s">
-        <v>5</v>
-      </c>
-      <c r="F144" t="s">
-        <v>5</v>
-      </c>
-      <c r="G144" t="s">
-        <v>25</v>
-      </c>
-      <c r="H144" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+      <c r="B156" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>23</v>
+      </c>
+      <c r="D156" t="s">
         <v>428</v>
       </c>
-      <c r="B145" t="s">
-        <v>1</v>
-      </c>
-      <c r="C145" t="s">
-        <v>23</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="E156" t="s">
+        <v>5</v>
+      </c>
+      <c r="F156" t="s">
+        <v>5</v>
+      </c>
+      <c r="G156" t="s">
+        <v>25</v>
+      </c>
+      <c r="H156" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>554</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>23</v>
+      </c>
+      <c r="D157" t="s">
+        <v>555</v>
+      </c>
+      <c r="E157" t="s">
+        <v>5</v>
+      </c>
+      <c r="F157" t="s">
+        <v>5</v>
+      </c>
+      <c r="G157" t="s">
+        <v>25</v>
+      </c>
+      <c r="H157" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>429</v>
       </c>
-      <c r="E145" t="s">
-        <v>5</v>
-      </c>
-      <c r="F145" t="s">
-        <v>5</v>
-      </c>
-      <c r="G145" t="s">
-        <v>25</v>
-      </c>
-      <c r="H145" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D158" t="s">
         <v>430</v>
       </c>
-      <c r="B146" t="s">
-        <v>1</v>
-      </c>
-      <c r="C146" t="s">
-        <v>23</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="E158" t="s">
+        <v>5</v>
+      </c>
+      <c r="F158" t="s">
+        <v>5</v>
+      </c>
+      <c r="G158" t="s">
+        <v>25</v>
+      </c>
+      <c r="H158" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>230</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159" t="s">
+        <v>231</v>
+      </c>
+      <c r="E159" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159" t="s">
+        <v>5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>25</v>
+      </c>
+      <c r="H159" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>232</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
+        <v>23</v>
+      </c>
+      <c r="D160" t="s">
+        <v>233</v>
+      </c>
+      <c r="E160" t="s">
+        <v>5</v>
+      </c>
+      <c r="F160" t="s">
+        <v>5</v>
+      </c>
+      <c r="G160" t="s">
+        <v>25</v>
+      </c>
+      <c r="H160" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>431</v>
       </c>
-      <c r="E146" t="s">
-        <v>5</v>
-      </c>
-      <c r="F146" t="s">
-        <v>5</v>
-      </c>
-      <c r="G146" t="s">
-        <v>25</v>
-      </c>
-      <c r="H146" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
+        <v>23</v>
+      </c>
+      <c r="D161" t="s">
         <v>432</v>
       </c>
-      <c r="B147" t="s">
-        <v>1</v>
-      </c>
-      <c r="C147" t="s">
-        <v>23</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="E161" t="s">
+        <v>5</v>
+      </c>
+      <c r="F161" t="s">
+        <v>5</v>
+      </c>
+      <c r="G161" t="s">
+        <v>25</v>
+      </c>
+      <c r="H161" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
         <v>433</v>
       </c>
-      <c r="E147" t="s">
-        <v>5</v>
-      </c>
-      <c r="F147" t="s">
-        <v>5</v>
-      </c>
-      <c r="G147" t="s">
-        <v>25</v>
-      </c>
-      <c r="H147" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+      <c r="B162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>23</v>
+      </c>
+      <c r="D162" t="s">
         <v>434</v>
       </c>
-      <c r="B148" t="s">
-        <v>1</v>
-      </c>
-      <c r="C148" t="s">
-        <v>23</v>
-      </c>
-      <c r="D148" t="s">
+      <c r="E162" t="s">
+        <v>5</v>
+      </c>
+      <c r="F162" t="s">
+        <v>5</v>
+      </c>
+      <c r="G162" t="s">
+        <v>25</v>
+      </c>
+      <c r="H162" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>435</v>
       </c>
-      <c r="E148" t="s">
-        <v>5</v>
-      </c>
-      <c r="F148" t="s">
-        <v>5</v>
-      </c>
-      <c r="G148" t="s">
-        <v>25</v>
-      </c>
-      <c r="H148" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+      <c r="B163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>23</v>
+      </c>
+      <c r="D163" t="s">
         <v>436</v>
       </c>
-      <c r="B149" t="s">
-        <v>1</v>
-      </c>
-      <c r="C149" t="s">
-        <v>23</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="E163" t="s">
+        <v>5</v>
+      </c>
+      <c r="F163" t="s">
+        <v>5</v>
+      </c>
+      <c r="G163" t="s">
+        <v>25</v>
+      </c>
+      <c r="H163" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>234</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>23</v>
+      </c>
+      <c r="D164" t="s">
+        <v>235</v>
+      </c>
+      <c r="E164" t="s">
+        <v>5</v>
+      </c>
+      <c r="F164" t="s">
+        <v>5</v>
+      </c>
+      <c r="G164" t="s">
+        <v>25</v>
+      </c>
+      <c r="H164" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>236</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>23</v>
+      </c>
+      <c r="D165" t="s">
+        <v>237</v>
+      </c>
+      <c r="E165" t="s">
+        <v>5</v>
+      </c>
+      <c r="F165" t="s">
+        <v>5</v>
+      </c>
+      <c r="G165" t="s">
+        <v>25</v>
+      </c>
+      <c r="H165" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>238</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>23</v>
+      </c>
+      <c r="D166" t="s">
+        <v>239</v>
+      </c>
+      <c r="E166" t="s">
+        <v>5</v>
+      </c>
+      <c r="F166" t="s">
+        <v>5</v>
+      </c>
+      <c r="G166" t="s">
+        <v>25</v>
+      </c>
+      <c r="H166" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>240</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>23</v>
+      </c>
+      <c r="D167" t="s">
+        <v>241</v>
+      </c>
+      <c r="E167" t="s">
+        <v>5</v>
+      </c>
+      <c r="F167" t="s">
+        <v>5</v>
+      </c>
+      <c r="G167" t="s">
+        <v>25</v>
+      </c>
+      <c r="H167" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>242</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168" t="s">
+        <v>243</v>
+      </c>
+      <c r="E168" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168" t="s">
+        <v>5</v>
+      </c>
+      <c r="G168" t="s">
+        <v>25</v>
+      </c>
+      <c r="H168" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>437</v>
       </c>
-      <c r="E149" t="s">
-        <v>5</v>
-      </c>
-      <c r="F149" t="s">
-        <v>5</v>
-      </c>
-      <c r="G149" t="s">
-        <v>25</v>
-      </c>
-      <c r="H149" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" t="s">
         <v>438</v>
       </c>
-      <c r="B150" t="s">
-        <v>1</v>
-      </c>
-      <c r="C150" t="s">
-        <v>23</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="E169" t="s">
+        <v>5</v>
+      </c>
+      <c r="F169" t="s">
+        <v>5</v>
+      </c>
+      <c r="G169" t="s">
+        <v>25</v>
+      </c>
+      <c r="H169" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>439</v>
       </c>
-      <c r="E150" t="s">
-        <v>5</v>
-      </c>
-      <c r="F150" t="s">
-        <v>5</v>
-      </c>
-      <c r="G150" t="s">
-        <v>25</v>
-      </c>
-      <c r="H150" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+      <c r="B170" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D170" t="s">
         <v>440</v>
       </c>
-      <c r="B151" t="s">
-        <v>1</v>
-      </c>
-      <c r="C151" t="s">
-        <v>23</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="E170" t="s">
+        <v>5</v>
+      </c>
+      <c r="F170" t="s">
+        <v>5</v>
+      </c>
+      <c r="G170" t="s">
+        <v>25</v>
+      </c>
+      <c r="H170" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>441</v>
       </c>
-      <c r="E151" t="s">
-        <v>5</v>
-      </c>
-      <c r="F151" t="s">
-        <v>5</v>
-      </c>
-      <c r="G151" t="s">
-        <v>25</v>
-      </c>
-      <c r="H151" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+      <c r="B171" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>23</v>
+      </c>
+      <c r="D171" t="s">
         <v>442</v>
       </c>
-      <c r="B152" t="s">
-        <v>1</v>
-      </c>
-      <c r="C152" t="s">
-        <v>23</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="E171" t="s">
+        <v>5</v>
+      </c>
+      <c r="F171" t="s">
+        <v>5</v>
+      </c>
+      <c r="G171" t="s">
+        <v>25</v>
+      </c>
+      <c r="H171" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
         <v>443</v>
       </c>
-      <c r="E152" t="s">
-        <v>5</v>
-      </c>
-      <c r="F152" t="s">
-        <v>5</v>
-      </c>
-      <c r="G152" t="s">
-        <v>25</v>
-      </c>
-      <c r="H152" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+      <c r="B172" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
+        <v>23</v>
+      </c>
+      <c r="D172" t="s">
         <v>444</v>
       </c>
-      <c r="B153" t="s">
-        <v>1</v>
-      </c>
-      <c r="C153" t="s">
-        <v>23</v>
-      </c>
-      <c r="D153" t="s">
-        <v>445</v>
-      </c>
-      <c r="E153" t="s">
-        <v>5</v>
-      </c>
-      <c r="F153" t="s">
-        <v>5</v>
-      </c>
-      <c r="G153" t="s">
-        <v>25</v>
-      </c>
-      <c r="H153" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>446</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1</v>
-      </c>
-      <c r="C154" t="s">
-        <v>23</v>
-      </c>
-      <c r="D154" t="s">
-        <v>447</v>
-      </c>
-      <c r="E154" t="s">
-        <v>5</v>
-      </c>
-      <c r="F154" t="s">
-        <v>5</v>
-      </c>
-      <c r="G154" t="s">
-        <v>25</v>
-      </c>
-      <c r="H154" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>448</v>
-      </c>
-      <c r="B155" t="s">
-        <v>1</v>
-      </c>
-      <c r="C155" t="s">
-        <v>23</v>
-      </c>
-      <c r="D155" t="s">
-        <v>449</v>
-      </c>
-      <c r="E155" t="s">
-        <v>5</v>
-      </c>
-      <c r="F155" t="s">
-        <v>5</v>
-      </c>
-      <c r="G155" t="s">
-        <v>25</v>
-      </c>
-      <c r="H155" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>450</v>
-      </c>
-      <c r="B156" t="s">
-        <v>1</v>
-      </c>
-      <c r="C156" t="s">
-        <v>23</v>
-      </c>
-      <c r="D156" t="s">
-        <v>451</v>
-      </c>
-      <c r="E156" t="s">
-        <v>5</v>
-      </c>
-      <c r="F156" t="s">
-        <v>5</v>
-      </c>
-      <c r="G156" t="s">
-        <v>25</v>
-      </c>
-      <c r="H156" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>452</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1</v>
-      </c>
-      <c r="C157" t="s">
-        <v>23</v>
-      </c>
-      <c r="D157" t="s">
-        <v>453</v>
-      </c>
-      <c r="E157" t="s">
-        <v>5</v>
-      </c>
-      <c r="F157" t="s">
-        <v>5</v>
-      </c>
-      <c r="G157" t="s">
-        <v>25</v>
-      </c>
-      <c r="H157" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>454</v>
-      </c>
-      <c r="B158" t="s">
-        <v>1</v>
-      </c>
-      <c r="C158" t="s">
-        <v>23</v>
-      </c>
-      <c r="D158" t="s">
-        <v>455</v>
-      </c>
-      <c r="E158" t="s">
-        <v>5</v>
-      </c>
-      <c r="F158" t="s">
-        <v>5</v>
-      </c>
-      <c r="G158" t="s">
-        <v>25</v>
-      </c>
-      <c r="H158" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>456</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1</v>
-      </c>
-      <c r="C159" t="s">
-        <v>23</v>
-      </c>
-      <c r="D159" t="s">
-        <v>457</v>
-      </c>
-      <c r="E159" t="s">
-        <v>5</v>
-      </c>
-      <c r="F159" t="s">
-        <v>5</v>
-      </c>
-      <c r="G159" t="s">
-        <v>25</v>
-      </c>
-      <c r="H159" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>458</v>
-      </c>
-      <c r="B160" t="s">
-        <v>1</v>
-      </c>
-      <c r="C160" t="s">
-        <v>459</v>
-      </c>
-      <c r="D160" t="s">
-        <v>460</v>
-      </c>
-      <c r="E160" t="s">
-        <v>461</v>
-      </c>
-      <c r="F160" t="s">
-        <v>462</v>
-      </c>
-      <c r="G160" t="s">
-        <v>25</v>
-      </c>
-      <c r="H160" t="s">
-        <v>463</v>
-      </c>
-      <c r="I160" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>465</v>
-      </c>
-      <c r="B161" t="s">
-        <v>1</v>
-      </c>
-      <c r="C161" t="s">
-        <v>466</v>
-      </c>
-      <c r="D161" t="s">
-        <v>467</v>
-      </c>
-      <c r="E161" t="s">
-        <v>468</v>
-      </c>
-      <c r="F161" t="s">
-        <v>5</v>
-      </c>
-      <c r="G161" t="s">
-        <v>25</v>
-      </c>
-      <c r="H161" t="s">
-        <v>469</v>
-      </c>
-      <c r="I161" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>195</v>
-      </c>
-      <c r="B162" t="s">
-        <v>1</v>
-      </c>
-      <c r="C162" t="s">
-        <v>23</v>
-      </c>
-      <c r="D162" t="s">
-        <v>471</v>
-      </c>
-      <c r="E162" t="s">
-        <v>5</v>
-      </c>
-      <c r="F162" t="s">
-        <v>5</v>
-      </c>
-      <c r="G162" t="s">
-        <v>25</v>
-      </c>
-      <c r="H162" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>472</v>
-      </c>
-      <c r="B163" t="s">
-        <v>1</v>
-      </c>
-      <c r="C163" t="s">
-        <v>23</v>
-      </c>
-      <c r="D163" t="s">
-        <v>473</v>
-      </c>
-      <c r="E163" t="s">
-        <v>474</v>
-      </c>
-      <c r="F163" t="s">
-        <v>5</v>
-      </c>
-      <c r="G163" t="s">
-        <v>25</v>
-      </c>
-      <c r="H163" t="s">
-        <v>26</v>
-      </c>
-      <c r="I163" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>476</v>
-      </c>
-      <c r="B164" t="s">
-        <v>1</v>
-      </c>
-      <c r="C164" t="s">
-        <v>23</v>
-      </c>
-      <c r="D164" t="s">
-        <v>477</v>
-      </c>
-      <c r="E164" t="s">
-        <v>111</v>
-      </c>
-      <c r="F164" t="s">
-        <v>5</v>
-      </c>
-      <c r="G164" t="s">
-        <v>25</v>
-      </c>
-      <c r="H164" t="s">
-        <v>26</v>
-      </c>
-      <c r="I164" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>479</v>
-      </c>
-      <c r="B165" t="s">
-        <v>1</v>
-      </c>
-      <c r="C165" t="s">
-        <v>23</v>
-      </c>
-      <c r="D165" t="s">
-        <v>480</v>
-      </c>
-      <c r="E165" t="s">
-        <v>111</v>
-      </c>
-      <c r="F165" t="s">
-        <v>5</v>
-      </c>
-      <c r="G165" t="s">
-        <v>25</v>
-      </c>
-      <c r="H165" t="s">
-        <v>26</v>
-      </c>
-      <c r="I165" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>481</v>
-      </c>
-      <c r="B166" t="s">
-        <v>1</v>
-      </c>
-      <c r="C166" t="s">
-        <v>23</v>
-      </c>
-      <c r="D166" t="s">
-        <v>482</v>
-      </c>
-      <c r="E166" t="s">
-        <v>366</v>
-      </c>
-      <c r="F166" t="s">
-        <v>5</v>
-      </c>
-      <c r="G166" t="s">
-        <v>25</v>
-      </c>
-      <c r="H166" t="s">
-        <v>26</v>
-      </c>
-      <c r="I166" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>484</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1</v>
-      </c>
-      <c r="C167" t="s">
-        <v>23</v>
-      </c>
-      <c r="D167" t="s">
-        <v>485</v>
-      </c>
-      <c r="E167" t="s">
-        <v>486</v>
-      </c>
-      <c r="F167" t="s">
-        <v>5</v>
-      </c>
-      <c r="G167" t="s">
-        <v>25</v>
-      </c>
-      <c r="H167" t="s">
-        <v>26</v>
-      </c>
-      <c r="I167" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>488</v>
-      </c>
-      <c r="B168" t="s">
-        <v>1</v>
-      </c>
-      <c r="C168" t="s">
-        <v>23</v>
-      </c>
-      <c r="D168" t="s">
-        <v>489</v>
-      </c>
-      <c r="E168" t="s">
-        <v>490</v>
-      </c>
-      <c r="F168" t="s">
-        <v>5</v>
-      </c>
-      <c r="G168" t="s">
-        <v>25</v>
-      </c>
-      <c r="H168" t="s">
-        <v>26</v>
-      </c>
-      <c r="I168" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>492</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1</v>
-      </c>
-      <c r="C169" t="s">
-        <v>23</v>
-      </c>
-      <c r="D169" t="s">
-        <v>493</v>
-      </c>
-      <c r="E169" t="s">
-        <v>5</v>
-      </c>
-      <c r="F169" t="s">
-        <v>5</v>
-      </c>
-      <c r="G169" t="s">
-        <v>25</v>
-      </c>
-      <c r="H169" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>494</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1</v>
-      </c>
-      <c r="C170" t="s">
-        <v>23</v>
-      </c>
-      <c r="D170" t="s">
-        <v>495</v>
-      </c>
-      <c r="E170" t="s">
-        <v>5</v>
-      </c>
-      <c r="F170" t="s">
-        <v>5</v>
-      </c>
-      <c r="G170" t="s">
-        <v>25</v>
-      </c>
-      <c r="H170" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>496</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1</v>
-      </c>
-      <c r="C171" t="s">
-        <v>23</v>
-      </c>
-      <c r="D171" t="s">
-        <v>497</v>
-      </c>
-      <c r="E171" t="s">
-        <v>5</v>
-      </c>
-      <c r="F171" t="s">
-        <v>5</v>
-      </c>
-      <c r="G171" t="s">
-        <v>25</v>
-      </c>
-      <c r="H171" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>498</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1</v>
-      </c>
-      <c r="C172" t="s">
-        <v>23</v>
-      </c>
-      <c r="D172" t="s">
-        <v>499</v>
-      </c>
       <c r="E172" t="s">
         <v>5</v>
       </c>
@@ -6785,9 +6806,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>500</v>
+        <v>244</v>
       </c>
       <c r="B173" t="s">
         <v>1</v>
@@ -6796,7 +6817,7 @@
         <v>23</v>
       </c>
       <c r="D173" t="s">
-        <v>501</v>
+        <v>245</v>
       </c>
       <c r="E173" t="s">
         <v>5</v>
@@ -6811,9 +6832,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>502</v>
+        <v>296</v>
       </c>
       <c r="B174" t="s">
         <v>1</v>
@@ -6822,7 +6843,7 @@
         <v>23</v>
       </c>
       <c r="D174" t="s">
-        <v>503</v>
+        <v>297</v>
       </c>
       <c r="E174" t="s">
         <v>5</v>
@@ -6837,18 +6858,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="B175" t="s">
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>504</v>
+        <v>23</v>
       </c>
       <c r="D175" t="s">
-        <v>505</v>
+        <v>247</v>
       </c>
       <c r="E175" t="s">
         <v>5</v>
@@ -6857,15 +6878,15 @@
         <v>5</v>
       </c>
       <c r="G175" t="s">
-        <v>504</v>
+        <v>25</v>
       </c>
       <c r="H175" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>507</v>
+        <v>298</v>
       </c>
       <c r="B176" t="s">
         <v>1</v>
@@ -6874,7 +6895,7 @@
         <v>23</v>
       </c>
       <c r="D176" t="s">
-        <v>508</v>
+        <v>299</v>
       </c>
       <c r="E176" t="s">
         <v>5</v>
@@ -6891,7 +6912,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>509</v>
+        <v>248</v>
       </c>
       <c r="B177" t="s">
         <v>1</v>
@@ -6900,24 +6921,27 @@
         <v>23</v>
       </c>
       <c r="D177" t="s">
-        <v>510</v>
+        <v>249</v>
       </c>
       <c r="E177" t="s">
         <v>5</v>
       </c>
       <c r="F177" t="s">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="G177" t="s">
         <v>25</v>
       </c>
       <c r="H177" t="s">
         <v>26</v>
+      </c>
+      <c r="I177" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>511</v>
+        <v>250</v>
       </c>
       <c r="B178" t="s">
         <v>1</v>
@@ -6926,24 +6950,27 @@
         <v>23</v>
       </c>
       <c r="D178" t="s">
-        <v>512</v>
+        <v>252</v>
       </c>
       <c r="E178" t="s">
         <v>5</v>
       </c>
       <c r="F178" t="s">
-        <v>5</v>
+        <v>248</v>
       </c>
       <c r="G178" t="s">
         <v>25</v>
       </c>
       <c r="H178" t="s">
         <v>26</v>
+      </c>
+      <c r="I178" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>513</v>
+        <v>254</v>
       </c>
       <c r="B179" t="s">
         <v>1</v>
@@ -6952,7 +6979,7 @@
         <v>23</v>
       </c>
       <c r="D179" t="s">
-        <v>514</v>
+        <v>255</v>
       </c>
       <c r="E179" t="s">
         <v>5</v>
@@ -6969,7 +6996,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>515</v>
+        <v>256</v>
       </c>
       <c r="B180" t="s">
         <v>1</v>
@@ -6978,7 +7005,7 @@
         <v>23</v>
       </c>
       <c r="D180" t="s">
-        <v>516</v>
+        <v>257</v>
       </c>
       <c r="E180" t="s">
         <v>5</v>
@@ -6995,7 +7022,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>517</v>
+        <v>258</v>
       </c>
       <c r="B181" t="s">
         <v>1</v>
@@ -7004,7 +7031,7 @@
         <v>23</v>
       </c>
       <c r="D181" t="s">
-        <v>518</v>
+        <v>259</v>
       </c>
       <c r="E181" t="s">
         <v>5</v>
@@ -7021,7 +7048,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>519</v>
+        <v>260</v>
       </c>
       <c r="B182" t="s">
         <v>1</v>
@@ -7030,7 +7057,7 @@
         <v>23</v>
       </c>
       <c r="D182" t="s">
-        <v>520</v>
+        <v>261</v>
       </c>
       <c r="E182" t="s">
         <v>5</v>
@@ -7043,14 +7070,11 @@
       </c>
       <c r="H182" t="s">
         <v>26</v>
-      </c>
-      <c r="I182" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>50</v>
+        <v>479</v>
       </c>
       <c r="B183" t="s">
         <v>1</v>
@@ -7059,7 +7083,7 @@
         <v>23</v>
       </c>
       <c r="D183" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="E183" t="s">
         <v>5</v>
@@ -7076,7 +7100,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="B184" t="s">
         <v>1</v>
@@ -7085,10 +7109,10 @@
         <v>23</v>
       </c>
       <c r="D184" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="E184" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="F184" t="s">
         <v>5</v>
@@ -7098,14 +7122,11 @@
       </c>
       <c r="H184" t="s">
         <v>26</v>
-      </c>
-      <c r="I184" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>526</v>
+        <v>483</v>
       </c>
       <c r="B185" t="s">
         <v>1</v>
@@ -7114,10 +7135,10 @@
         <v>23</v>
       </c>
       <c r="D185" t="s">
-        <v>527</v>
+        <v>484</v>
       </c>
       <c r="E185" t="s">
-        <v>528</v>
+        <v>5</v>
       </c>
       <c r="F185" t="s">
         <v>5</v>
@@ -7127,14 +7148,11 @@
       </c>
       <c r="H185" t="s">
         <v>26</v>
-      </c>
-      <c r="I185" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="B186" t="s">
         <v>1</v>
@@ -7143,10 +7161,10 @@
         <v>23</v>
       </c>
       <c r="D186" t="s">
-        <v>531</v>
+        <v>486</v>
       </c>
       <c r="E186" t="s">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="F186" t="s">
         <v>5</v>
@@ -7156,14 +7174,11 @@
       </c>
       <c r="H186" t="s">
         <v>26</v>
-      </c>
-      <c r="I186" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>534</v>
+        <v>487</v>
       </c>
       <c r="B187" t="s">
         <v>1</v>
@@ -7172,10 +7187,10 @@
         <v>23</v>
       </c>
       <c r="D187" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="E187" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="F187" t="s">
         <v>5</v>
@@ -7189,7 +7204,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>536</v>
+        <v>489</v>
       </c>
       <c r="B188" t="s">
         <v>1</v>
@@ -7198,10 +7213,10 @@
         <v>23</v>
       </c>
       <c r="D188" t="s">
-        <v>537</v>
+        <v>490</v>
       </c>
       <c r="E188" t="s">
-        <v>538</v>
+        <v>5</v>
       </c>
       <c r="F188" t="s">
         <v>5</v>
@@ -7211,38 +7226,93 @@
       </c>
       <c r="H188" t="s">
         <v>26</v>
-      </c>
-      <c r="I188" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>540</v>
+        <v>445</v>
       </c>
       <c r="B189" t="s">
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="D189" t="s">
-        <v>541</v>
+        <v>447</v>
       </c>
       <c r="E189" t="s">
-        <v>175</v>
+        <v>448</v>
       </c>
       <c r="F189" t="s">
-        <v>82</v>
+        <v>449</v>
       </c>
       <c r="G189" t="s">
         <v>25</v>
       </c>
       <c r="H189" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="I189" t="s">
-        <v>542</v>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>525</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>453</v>
+      </c>
+      <c r="D190" t="s">
+        <v>526</v>
+      </c>
+      <c r="E190" t="s">
+        <v>169</v>
+      </c>
+      <c r="F190" t="s">
+        <v>5</v>
+      </c>
+      <c r="G190" t="s">
+        <v>25</v>
+      </c>
+      <c r="H190" t="s">
+        <v>456</v>
+      </c>
+      <c r="I190" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>452</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>453</v>
+      </c>
+      <c r="D191" t="s">
+        <v>454</v>
+      </c>
+      <c r="E191" t="s">
+        <v>455</v>
+      </c>
+      <c r="F191" t="s">
+        <v>5</v>
+      </c>
+      <c r="G191" t="s">
+        <v>25</v>
+      </c>
+      <c r="H191" t="s">
+        <v>456</v>
+      </c>
+      <c r="I191" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
